--- a/Finflux Automation Excels/Client/4617-NonWorkSatandSun-REPAYDUE-SAMEDAY-DISBDAILYLOANon02JAN2013-REPAY05JAN2013.xlsx
+++ b/Finflux Automation Excels/Client/4617-NonWorkSatandSun-REPAYDUE-SAMEDAY-DISBDAILYLOANon02JAN2013-REPAY05JAN2013.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -13,14 +18,16 @@
     <sheet name="Transactions" sheetId="4" r:id="rId4"/>
     <sheet name="Input" sheetId="7" r:id="rId5"/>
     <sheet name="error" sheetId="8" r:id="rId6"/>
-    <sheet name="Repay1" sheetId="9" r:id="rId7"/>
+    <sheet name="Modify Transaction" sheetId="10" r:id="rId7"/>
+    <sheet name="Modify Transaction1" sheetId="11" r:id="rId8"/>
+    <sheet name="Repay1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
   <si>
     <t>#</t>
   </si>
@@ -34,9 +41,6 @@
     <t>Paid Date</t>
   </si>
   <si>
-    <t>heading</t>
-  </si>
-  <si>
     <t>Principal Due</t>
   </si>
   <si>
@@ -169,20 +173,89 @@
     <t>makerepayment</t>
   </si>
   <si>
-    <t>4615-WorkingNoNWorking-Loanproduct</t>
-  </si>
-  <si>
     <t>verify1</t>
   </si>
   <si>
     <t>Repayment date should not be a non working day.</t>
+  </si>
+  <si>
+    <t>Chaitanya-TestLoan</t>
+  </si>
+  <si>
+    <t>Repaidevery</t>
+  </si>
+  <si>
+    <t>Repaideverytype</t>
+  </si>
+  <si>
+    <t>Loantermtype</t>
+  </si>
+  <si>
+    <t>maximumallowedoutstandingbalance</t>
+  </si>
+  <si>
+    <t>loantrancheclick</t>
+  </si>
+  <si>
+    <t>plus 0</t>
+  </si>
+  <si>
+    <t>expecteddisbursementon</t>
+  </si>
+  <si>
+    <t>principal</t>
+  </si>
+  <si>
+    <t>repaymenttransactionamount</t>
+  </si>
+  <si>
+    <t>submitmakerepayment</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>clickonmorebutton</t>
+  </si>
+  <si>
+    <t>More Button</t>
+  </si>
+  <si>
+    <t>clickonwaiveinterest</t>
+  </si>
+  <si>
+    <t>Waveintrest</t>
+  </si>
+  <si>
+    <t>waittopageload</t>
+  </si>
+  <si>
+    <t>clickonsubmit</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Repaymentdate</t>
+  </si>
+  <si>
+    <t>Repayment</t>
+  </si>
+  <si>
+    <t>Repayment (at time of disbursement)</t>
+  </si>
+  <si>
+    <t>clickoncancelCenter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\ mmm\ yy"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,8 +276,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,8 +321,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6A6"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFA6A6A6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -238,60 +342,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -315,6 +371,19 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -324,6 +393,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -372,7 +444,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,9 +477,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -440,6 +529,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -616,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,91 +735,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="3">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="6">
-        <v>41275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="3">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="3">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="6">
-        <v>41306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="5" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="5" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B14" s="3">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="6">
-        <v>41275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="6" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="5" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="B17" s="3">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="6">
-        <v>41306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -724,119 +886,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>10000</v>
       </c>
-      <c r="B2" s="10">
-        <v>10000</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8">
+      <c r="B2" s="5">
+        <v>931.71</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5">
         <v>0</v>
       </c>
       <c r="E2" s="8">
-        <v>0</v>
+        <v>9068.2900000000009</v>
       </c>
       <c r="F2" s="8">
-        <v>0</v>
-      </c>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>89.28</v>
-      </c>
-      <c r="B3" s="8">
-        <v>89.28</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
+        <v>9068.2900000000009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>269.44</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3.29</v>
+      </c>
+      <c r="C3" s="5">
+        <v>98</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>168.15</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>200</v>
+      </c>
+      <c r="B4" s="5">
+        <v>200</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
         <v>0</v>
       </c>
     </row>
@@ -847,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,302 +1027,702 @@
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="7">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5">
+        <v>200</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5">
+        <v>200</v>
+      </c>
+      <c r="L2" s="5">
+        <v>200</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>42006</v>
+      </c>
+      <c r="D3" s="6">
+        <v>42009</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="5">
+        <v>831.83</v>
+      </c>
+      <c r="G3" s="8">
+        <v>9168.17</v>
+      </c>
+      <c r="H3" s="5">
+        <v>3.29</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>835.12</v>
+      </c>
+      <c r="L3" s="5">
+        <v>835.12</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>835.12</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>42009</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
+        <v>825.26</v>
+      </c>
+      <c r="G4" s="8">
+        <v>8342.91</v>
+      </c>
+      <c r="H4" s="5">
+        <v>9.86</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>835.12</v>
+      </c>
+      <c r="L4" s="5">
+        <v>99.88</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>9.86</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>725.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>42009</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <v>835.12</v>
+      </c>
+      <c r="G5" s="8">
+        <v>7507.79</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>835.12</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>835.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9">
-        <v>41306</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="10">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8">
-        <v>0</v>
-      </c>
-      <c r="L2" s="8">
-        <v>0</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>42009</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
+        <v>835.12</v>
+      </c>
+      <c r="G6" s="8">
+        <v>6672.67</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>835.12</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>835.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="C7" s="6">
+        <v>42010</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
+        <v>832.14</v>
+      </c>
+      <c r="G7" s="8">
+        <v>5840.53</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2.98</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>835.12</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>2.98</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>832.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
-        <v>41307</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8">
-        <v>831.83</v>
-      </c>
-      <c r="G3" s="11">
-        <v>9168.17</v>
-      </c>
-      <c r="H3" s="8">
-        <v>3.29</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
+      <c r="C8" s="6">
+        <v>42011</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <v>832.14</v>
+      </c>
+      <c r="G8" s="8">
+        <v>5008.3900000000003</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2.98</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
         <v>835.12</v>
       </c>
-      <c r="L3" s="8">
-        <v>0</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8">
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>2.98</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>832.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>42012</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
+        <v>832.14</v>
+      </c>
+      <c r="G9" s="8">
+        <v>4176.25</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2.98</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
         <v>835.12</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>2.98</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>832.14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
-        <v>41308</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8">
-        <v>832.11</v>
-      </c>
-      <c r="G4" s="11">
-        <v>8336.06</v>
-      </c>
-      <c r="H4" s="8">
-        <v>3.01</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
+      <c r="C10" s="6">
+        <v>42013</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
+        <v>832.14</v>
+      </c>
+      <c r="G10" s="8">
+        <v>3344.11</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2.98</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
         <v>835.12</v>
       </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>2.98</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>832.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6">
+        <v>42016</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5">
+        <v>826.17</v>
+      </c>
+      <c r="G11" s="8">
+        <v>2517.94</v>
+      </c>
+      <c r="H11" s="5">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
         <v>835.12</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>826.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>42016</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
+        <v>835.12</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1682.82</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>835.12</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>835.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>42016</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
+        <v>835.12</v>
+      </c>
+      <c r="G13" s="5">
+        <v>847.7</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>835.12</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>835.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
-        <v>41309</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8">
-        <v>832.38</v>
-      </c>
-      <c r="G5" s="11">
-        <v>7503.68</v>
-      </c>
-      <c r="H5" s="8">
-        <v>2.74</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>835.12</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
-        <v>835.12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9">
-        <v>41310</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8">
-        <v>832.65</v>
-      </c>
-      <c r="G6" s="11">
-        <v>6671.03</v>
-      </c>
-      <c r="H6" s="8">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>835.12</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
-        <v>835.12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9">
-        <v>41311</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8">
-        <v>832.93</v>
-      </c>
-      <c r="G7" s="11">
-        <v>5838.1</v>
-      </c>
-      <c r="H7" s="8">
-        <v>2.19</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>835.12</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <v>835.12</v>
+      <c r="C14" s="6">
+        <v>42017</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
+        <v>847.7</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2.98</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>850.68</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>2.98</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>847.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <v>78</v>
+      </c>
+      <c r="C15" s="6">
+        <v>42095</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>232.44</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>232.44</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>64.290000000000006</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>168.15</v>
       </c>
     </row>
   </sheetData>
@@ -1173,126 +1733,196 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>353</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>1840</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="9">
-        <v>41289</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="8">
-        <v>23.01</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8">
-        <v>23.01</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10">
+      <c r="C2" s="6">
+        <v>42009</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="5">
+        <v>98</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>9068.2900000000009</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>352</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6">
+        <v>42009</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="5">
+        <v>935</v>
+      </c>
+      <c r="F3" s="5">
+        <v>931.71</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3.29</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>9068.2900000000009</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>351</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="6">
+        <v>42005</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="5">
+        <v>200</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>200</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
         <v>10000</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1838</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="9">
-        <v>41275</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>350</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6">
+        <v>42005</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7">
         <v>10000</v>
       </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
         <v>10000</v>
       </c>
-      <c r="K3"/>
-      <c r="L3"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1304,7 +1934,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,18 +1943,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="13">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="10">
         <v>41320</v>
       </c>
     </row>
@@ -1337,16 +1967,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>51</v>
+      <c r="A1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1356,28 +1991,162 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="10">
+        <v>42009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="4">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="10">
+        <v>42009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="17">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="17">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="13">
-        <v>41279</v>
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="10">
+        <v>42008</v>
       </c>
     </row>
   </sheetData>
